--- a/tests/indicators/m-r/Marubozu/Marubozu.Calc.xlsx
+++ b/tests/indicators/m-r/Marubozu/Marubozu.Calc.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAEDBCC1-B025-4483-B168-CDACF43C80CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D7D0A2B-F39C-44B1-9BE1-D6A7891914CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20010" yWindow="0" windowWidth="19065" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Marubozu" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1383,18 +1392,25 @@
   <dimension ref="A1:R504"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1"/>
+      <selection activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="9" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="9.140625" style="10"/>
-    <col min="17" max="17" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
